--- a/Study 1 model fitting results.xlsx
+++ b/Study 1 model fitting results.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimi/Desktop/Desktop Contents/Dissertation/Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BCCE7F-7B82-3842-B51A-B24B1F63FC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B2CCF3-8016-5F49-B7EF-162B6AB64722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="520" windowWidth="47040" windowHeight="25320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55640" yWindow="3740" windowWidth="47040" windowHeight="25320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Result_PSTRE" sheetId="13" r:id="rId1"/>
-    <sheet name="Result_LITNUM" sheetId="3" r:id="rId2"/>
-    <sheet name="PSTRE_ranef_pv1" sheetId="19" r:id="rId3"/>
-    <sheet name="LITNUM_ranef_pv1" sheetId="18" r:id="rId4"/>
-    <sheet name="PSTRE PVs" sheetId="12" r:id="rId5"/>
-    <sheet name="LITNUM PVs" sheetId="16" r:id="rId6"/>
-    <sheet name="Model AIC comparison" sheetId="8" r:id="rId7"/>
-    <sheet name="Null model" sheetId="2" r:id="rId8"/>
+    <sheet name="Study 1 result" sheetId="21" r:id="rId1"/>
+    <sheet name="Study 1 result_raw" sheetId="20" r:id="rId2"/>
+    <sheet name="Result_PSTRE" sheetId="13" r:id="rId3"/>
+    <sheet name="Result_LITNUM" sheetId="3" r:id="rId4"/>
+    <sheet name="PSTRE_ranef_pv1" sheetId="19" r:id="rId5"/>
+    <sheet name="LITNUM_ranef_pv1" sheetId="18" r:id="rId6"/>
+    <sheet name="PSTRE PVs" sheetId="12" r:id="rId7"/>
+    <sheet name="LITNUM PVs" sheetId="16" r:id="rId8"/>
+    <sheet name="Model AIC comparison" sheetId="8" r:id="rId9"/>
+    <sheet name="Null model" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3464" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="740">
   <si>
     <t>.</t>
   </si>
@@ -2255,6 +2257,227 @@
   <si>
     <t># of observations = 35,248, # of countries = 35</t>
   </si>
+  <si>
+    <t>Literacy + Numeracy Final Model</t>
+  </si>
+  <si>
+    <t>PSTRE Final Model</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>95% CIs</t>
+  </si>
+  <si>
+    <t>Exp(Estimate)</t>
+  </si>
+  <si>
+    <t>Exp(95% CIs)</t>
+  </si>
+  <si>
+    <t>[-0.139, 0.563]</t>
+  </si>
+  <si>
+    <t>[0.870, 1.756]</t>
+  </si>
+  <si>
+    <t>[-0.144, 0.710]</t>
+  </si>
+  <si>
+    <t>[0.866, 2.035]</t>
+  </si>
+  <si>
+    <t>Literacy + Numeracy/PSTRE</t>
+  </si>
+  <si>
+    <t>[0.040, 0.178]</t>
+  </si>
+  <si>
+    <t>[1.041, 1.194]</t>
+  </si>
+  <si>
+    <t>[-0.055, 0.097]</t>
+  </si>
+  <si>
+    <t>[0.946, 1.102]</t>
+  </si>
+  <si>
+    <t>[0.252, 0.502]</t>
+  </si>
+  <si>
+    <t>[1.286, 1.653]</t>
+  </si>
+  <si>
+    <t>[0.263, 0.509]</t>
+  </si>
+  <si>
+    <t>[1.300, 1.664]</t>
+  </si>
+  <si>
+    <t>[-0.354, -0.178]</t>
+  </si>
+  <si>
+    <t>[0.702, 0.837]</t>
+  </si>
+  <si>
+    <t>[-0.399, -0.195]</t>
+  </si>
+  <si>
+    <t>[0.671, 0.823]</t>
+  </si>
+  <si>
+    <t>[-0.027, 0.161]</t>
+  </si>
+  <si>
+    <t>[0.973, 1.175]</t>
+  </si>
+  <si>
+    <t>[0.017, 0.229]</t>
+  </si>
+  <si>
+    <t>[1.017, 1.257]</t>
+  </si>
+  <si>
+    <t>[0.245, 0.869]</t>
+  </si>
+  <si>
+    <t>[1.278, 2.384]</t>
+  </si>
+  <si>
+    <t>[0.083, 0.851]</t>
+  </si>
+  <si>
+    <t>[1.086, 2.342]</t>
+  </si>
+  <si>
+    <t>[-0.08, 0.528]</t>
+  </si>
+  <si>
+    <t>[0.923, 1.695]</t>
+  </si>
+  <si>
+    <t>[-0.303, 0.453]</t>
+  </si>
+  <si>
+    <t>[0.738, 1.573]</t>
+  </si>
+  <si>
+    <t>[-0.087, 0.579]</t>
+  </si>
+  <si>
+    <t>[0.916, 1.785]</t>
+  </si>
+  <si>
+    <t>[-0.271, 0.541]</t>
+  </si>
+  <si>
+    <t>[0.763, 1.717]</t>
+  </si>
+  <si>
+    <t>[0.436, 0.604]</t>
+  </si>
+  <si>
+    <t>[1.546, 1.830]</t>
+  </si>
+  <si>
+    <t>[0.465, 0.657]</t>
+  </si>
+  <si>
+    <t>[1.592, 1.929]</t>
+  </si>
+  <si>
+    <t>[0.157, 0.181]</t>
+  </si>
+  <si>
+    <t>[1.170, 1.198]</t>
+  </si>
+  <si>
+    <t>[0.153, 0.181]</t>
+  </si>
+  <si>
+    <t>[1.166, 1.198]</t>
+  </si>
+  <si>
+    <t>[-0.475, -0.145]</t>
+  </si>
+  <si>
+    <t>[0.622, 0.865]</t>
+  </si>
+  <si>
+    <t>[-0.450, -0.050]</t>
+  </si>
+  <si>
+    <t>[0.638, 0.951]</t>
+  </si>
+  <si>
+    <t>[0.261, 0.531]</t>
+  </si>
+  <si>
+    <t>[1.298, 1.701]</t>
+  </si>
+  <si>
+    <t>[0.358, 0.664]</t>
+  </si>
+  <si>
+    <t>[1.431, 1.942]</t>
+  </si>
+  <si>
+    <t>[-0.160, 0.094]</t>
+  </si>
+  <si>
+    <t>[0.852, 1.099]</t>
+  </si>
+  <si>
+    <t>[-0.087, 0.203]</t>
+  </si>
+  <si>
+    <t>[0.917, 1.225]</t>
+  </si>
+  <si>
+    <t>Study 1- Employability</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Literacy + Numeracy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Final Model</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PSTRE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Final Model</t>
+    </r>
+  </si>
+  <si>
+    <t>Study 1 - Employability</t>
+  </si>
 </sst>
 </file>
 
@@ -2266,7 +2489,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2424,8 +2647,27 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2456,8 +2698,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2485,6 +2739,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2497,7 +2837,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2757,6 +3097,211 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3083,10 +3628,1319 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E6F793-F5A6-DA4D-9708-7D89CE3448CB}">
+  <dimension ref="A2:I22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.1640625" customWidth="1"/>
+    <col min="2" max="3" width="15.83203125" style="145" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="145" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="145" customWidth="1"/>
+    <col min="6" max="7" width="15.83203125" style="146" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="146" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" style="146" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" s="112" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="147" t="s">
+        <v>736</v>
+      </c>
+      <c r="B2" s="149" t="s">
+        <v>737</v>
+      </c>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="152" t="s">
+        <v>738</v>
+      </c>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+    </row>
+    <row r="3" spans="1:9" s="120" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="148"/>
+      <c r="B3" s="113" t="s">
+        <v>679</v>
+      </c>
+      <c r="C3" s="114" t="s">
+        <v>680</v>
+      </c>
+      <c r="D3" s="115" t="s">
+        <v>681</v>
+      </c>
+      <c r="E3" s="116" t="s">
+        <v>682</v>
+      </c>
+      <c r="F3" s="117" t="s">
+        <v>679</v>
+      </c>
+      <c r="G3" s="118" t="s">
+        <v>680</v>
+      </c>
+      <c r="H3" s="119" t="s">
+        <v>681</v>
+      </c>
+      <c r="I3" s="119" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="122"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+    </row>
+    <row r="5" spans="1:9" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="130" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>683</v>
+      </c>
+      <c r="D5" s="132">
+        <v>1.2361478850785035</v>
+      </c>
+      <c r="E5" s="133" t="s">
+        <v>684</v>
+      </c>
+      <c r="F5" s="134" t="s">
+        <v>408</v>
+      </c>
+      <c r="G5" s="135" t="s">
+        <v>685</v>
+      </c>
+      <c r="H5" s="136">
+        <v>1.3271051618171572</v>
+      </c>
+      <c r="I5" s="136" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="129" t="s">
+        <v>687</v>
+      </c>
+      <c r="B6" s="130" t="s">
+        <v>567</v>
+      </c>
+      <c r="C6" s="131" t="s">
+        <v>688</v>
+      </c>
+      <c r="D6" s="132">
+        <v>1.1151623503414478</v>
+      </c>
+      <c r="E6" s="133" t="s">
+        <v>689</v>
+      </c>
+      <c r="F6" s="134" t="s">
+        <v>409</v>
+      </c>
+      <c r="G6" s="135" t="s">
+        <v>690</v>
+      </c>
+      <c r="H6" s="136">
+        <v>1.0212220516375285</v>
+      </c>
+      <c r="I6" s="136" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="130" t="s">
+        <v>568</v>
+      </c>
+      <c r="C7" s="131" t="s">
+        <v>692</v>
+      </c>
+      <c r="D7" s="132">
+        <v>1.4579043093712258</v>
+      </c>
+      <c r="E7" s="133" t="s">
+        <v>693</v>
+      </c>
+      <c r="F7" s="134" t="s">
+        <v>410</v>
+      </c>
+      <c r="G7" s="135" t="s">
+        <v>694</v>
+      </c>
+      <c r="H7" s="136">
+        <v>1.4710846708147431</v>
+      </c>
+      <c r="I7" s="136" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="129" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="130" t="s">
+        <v>542</v>
+      </c>
+      <c r="C8" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="D8" s="132">
+        <v>0.76643912750101917</v>
+      </c>
+      <c r="E8" s="133" t="s">
+        <v>697</v>
+      </c>
+      <c r="F8" s="134" t="s">
+        <v>411</v>
+      </c>
+      <c r="G8" s="135" t="s">
+        <v>698</v>
+      </c>
+      <c r="H8" s="136">
+        <v>0.74304401236193984</v>
+      </c>
+      <c r="I8" s="136" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="130" t="s">
+        <v>569</v>
+      </c>
+      <c r="C9" s="131" t="s">
+        <v>700</v>
+      </c>
+      <c r="D9" s="132">
+        <v>1.0692954781746002</v>
+      </c>
+      <c r="E9" s="133" t="s">
+        <v>701</v>
+      </c>
+      <c r="F9" s="134" t="s">
+        <v>412</v>
+      </c>
+      <c r="G9" s="135" t="s">
+        <v>702</v>
+      </c>
+      <c r="H9" s="136">
+        <v>1.1308844209474893</v>
+      </c>
+      <c r="I9" s="136" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="130" t="s">
+        <v>570</v>
+      </c>
+      <c r="C10" s="131" t="s">
+        <v>704</v>
+      </c>
+      <c r="D10" s="132">
+        <v>1.7454283529493428</v>
+      </c>
+      <c r="E10" s="133" t="s">
+        <v>705</v>
+      </c>
+      <c r="F10" s="134" t="s">
+        <v>413</v>
+      </c>
+      <c r="G10" s="135" t="s">
+        <v>706</v>
+      </c>
+      <c r="H10" s="136">
+        <v>1.5952014034170006</v>
+      </c>
+      <c r="I10" s="136" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="129" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="130" t="s">
+        <v>571</v>
+      </c>
+      <c r="C11" s="131" t="s">
+        <v>708</v>
+      </c>
+      <c r="D11" s="132">
+        <v>1.2510710194283623</v>
+      </c>
+      <c r="E11" s="133" t="s">
+        <v>709</v>
+      </c>
+      <c r="F11" s="134" t="s">
+        <v>414</v>
+      </c>
+      <c r="G11" s="135" t="s">
+        <v>710</v>
+      </c>
+      <c r="H11" s="136">
+        <v>1.0778841508846315</v>
+      </c>
+      <c r="I11" s="136" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="129" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="130" t="s">
+        <v>614</v>
+      </c>
+      <c r="C12" s="131" t="s">
+        <v>712</v>
+      </c>
+      <c r="D12" s="132">
+        <v>1.2788995735417383</v>
+      </c>
+      <c r="E12" s="133" t="s">
+        <v>713</v>
+      </c>
+      <c r="F12" s="134" t="s">
+        <v>415</v>
+      </c>
+      <c r="G12" s="135" t="s">
+        <v>714</v>
+      </c>
+      <c r="H12" s="136">
+        <v>1.1445367843513146</v>
+      </c>
+      <c r="I12" s="136" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="130" t="s">
+        <v>615</v>
+      </c>
+      <c r="C13" s="131" t="s">
+        <v>716</v>
+      </c>
+      <c r="D13" s="132">
+        <v>1.6820276496988864</v>
+      </c>
+      <c r="E13" s="133" t="s">
+        <v>717</v>
+      </c>
+      <c r="F13" s="134" t="s">
+        <v>383</v>
+      </c>
+      <c r="G13" s="135" t="s">
+        <v>718</v>
+      </c>
+      <c r="H13" s="136">
+        <v>1.7524240484244991</v>
+      </c>
+      <c r="I13" s="136" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="130" t="s">
+        <v>548</v>
+      </c>
+      <c r="C14" s="131" t="s">
+        <v>720</v>
+      </c>
+      <c r="D14" s="132">
+        <v>1.1841201389239695</v>
+      </c>
+      <c r="E14" s="133" t="s">
+        <v>721</v>
+      </c>
+      <c r="F14" s="134" t="s">
+        <v>384</v>
+      </c>
+      <c r="G14" s="135" t="s">
+        <v>722</v>
+      </c>
+      <c r="H14" s="136">
+        <v>1.1817542653083615</v>
+      </c>
+      <c r="I14" s="136" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>616</v>
+      </c>
+      <c r="C15" s="131" t="s">
+        <v>724</v>
+      </c>
+      <c r="D15" s="132">
+        <v>0.73344695622428924</v>
+      </c>
+      <c r="E15" s="133" t="s">
+        <v>725</v>
+      </c>
+      <c r="F15" s="134" t="s">
+        <v>672</v>
+      </c>
+      <c r="G15" s="135" t="s">
+        <v>726</v>
+      </c>
+      <c r="H15" s="136">
+        <v>0.77880078307140488</v>
+      </c>
+      <c r="I15" s="136" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="130" t="s">
+        <v>574</v>
+      </c>
+      <c r="C16" s="131" t="s">
+        <v>728</v>
+      </c>
+      <c r="D16" s="132">
+        <v>1.4858693175513897</v>
+      </c>
+      <c r="E16" s="133" t="s">
+        <v>729</v>
+      </c>
+      <c r="F16" s="134" t="s">
+        <v>351</v>
+      </c>
+      <c r="G16" s="135" t="s">
+        <v>730</v>
+      </c>
+      <c r="H16" s="136">
+        <v>1.6669573190640476</v>
+      </c>
+      <c r="I16" s="136" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="130" t="s">
+        <v>575</v>
+      </c>
+      <c r="C17" s="131" t="s">
+        <v>732</v>
+      </c>
+      <c r="D17" s="132">
+        <v>0.96753855958903201</v>
+      </c>
+      <c r="E17" s="133" t="s">
+        <v>733</v>
+      </c>
+      <c r="F17" s="134" t="s">
+        <v>417</v>
+      </c>
+      <c r="G17" s="135" t="s">
+        <v>734</v>
+      </c>
+      <c r="H17" s="136">
+        <v>1.0597149957102876</v>
+      </c>
+      <c r="I17" s="136" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="121" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="130"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="137"/>
+    </row>
+    <row r="19" spans="1:9" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="130" t="s">
+        <v>576</v>
+      </c>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="134" t="s">
+        <v>418</v>
+      </c>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="137"/>
+    </row>
+    <row r="20" spans="1:9" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="129" t="s">
+        <v>687</v>
+      </c>
+      <c r="B20" s="130" t="s">
+        <v>577</v>
+      </c>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="134" t="s">
+        <v>419</v>
+      </c>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="137"/>
+    </row>
+    <row r="21" spans="1:9" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="138" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="139" t="s">
+        <v>578</v>
+      </c>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="142" t="s">
+        <v>420</v>
+      </c>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="144"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F22" s="104"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="122.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2772C4AA-3B6B-0743-BCCE-385E9F35E3DE}">
+  <dimension ref="A2:I32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.6640625" style="105" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="89" customWidth="1"/>
+    <col min="3" max="5" width="13.83203125" style="89" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="93" customWidth="1"/>
+    <col min="7" max="9" width="13.83203125" style="93" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="105"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" s="89" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="153" t="s">
+        <v>739</v>
+      </c>
+      <c r="B2" s="155" t="s">
+        <v>677</v>
+      </c>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="156" t="s">
+        <v>678</v>
+      </c>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+    </row>
+    <row r="3" spans="1:9" s="93" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="154"/>
+      <c r="B3" s="90" t="s">
+        <v>679</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>680</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>681</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>682</v>
+      </c>
+      <c r="F3" s="91" t="s">
+        <v>679</v>
+      </c>
+      <c r="G3" s="91" t="s">
+        <v>680</v>
+      </c>
+      <c r="H3" s="91" t="s">
+        <v>681</v>
+      </c>
+      <c r="I3" s="91" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="95"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+    </row>
+    <row r="5" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="98" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>683</v>
+      </c>
+      <c r="D5" s="99">
+        <v>1.2361478850785035</v>
+      </c>
+      <c r="E5" s="100" t="s">
+        <v>684</v>
+      </c>
+      <c r="F5" s="101" t="s">
+        <v>408</v>
+      </c>
+      <c r="G5" s="99" t="s">
+        <v>685</v>
+      </c>
+      <c r="H5" s="99">
+        <v>1.3271051618171572</v>
+      </c>
+      <c r="I5" s="99" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="97" t="s">
+        <v>687</v>
+      </c>
+      <c r="B6" s="98" t="s">
+        <v>567</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>688</v>
+      </c>
+      <c r="D6" s="99">
+        <v>1.1151623503414478</v>
+      </c>
+      <c r="E6" s="100" t="s">
+        <v>689</v>
+      </c>
+      <c r="F6" s="101" t="s">
+        <v>409</v>
+      </c>
+      <c r="G6" s="99" t="s">
+        <v>690</v>
+      </c>
+      <c r="H6" s="99">
+        <v>1.0212220516375285</v>
+      </c>
+      <c r="I6" s="99" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="98" t="s">
+        <v>568</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>692</v>
+      </c>
+      <c r="D7" s="99">
+        <v>1.4579043093712258</v>
+      </c>
+      <c r="E7" s="100" t="s">
+        <v>693</v>
+      </c>
+      <c r="F7" s="101" t="s">
+        <v>410</v>
+      </c>
+      <c r="G7" s="99" t="s">
+        <v>694</v>
+      </c>
+      <c r="H7" s="99">
+        <v>1.4710846708147431</v>
+      </c>
+      <c r="I7" s="99" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="98" t="s">
+        <v>542</v>
+      </c>
+      <c r="C8" s="99" t="s">
+        <v>696</v>
+      </c>
+      <c r="D8" s="99">
+        <v>0.76643912750101917</v>
+      </c>
+      <c r="E8" s="100" t="s">
+        <v>697</v>
+      </c>
+      <c r="F8" s="101" t="s">
+        <v>411</v>
+      </c>
+      <c r="G8" s="99" t="s">
+        <v>698</v>
+      </c>
+      <c r="H8" s="99">
+        <v>0.74304401236193984</v>
+      </c>
+      <c r="I8" s="99" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>569</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>700</v>
+      </c>
+      <c r="D9" s="99">
+        <v>1.0692954781746002</v>
+      </c>
+      <c r="E9" s="100" t="s">
+        <v>701</v>
+      </c>
+      <c r="F9" s="101" t="s">
+        <v>412</v>
+      </c>
+      <c r="G9" s="99" t="s">
+        <v>702</v>
+      </c>
+      <c r="H9" s="99">
+        <v>1.1308844209474893</v>
+      </c>
+      <c r="I9" s="99" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>570</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>704</v>
+      </c>
+      <c r="D10" s="99">
+        <v>1.7454283529493428</v>
+      </c>
+      <c r="E10" s="100" t="s">
+        <v>705</v>
+      </c>
+      <c r="F10" s="101" t="s">
+        <v>413</v>
+      </c>
+      <c r="G10" s="99" t="s">
+        <v>706</v>
+      </c>
+      <c r="H10" s="99">
+        <v>1.5952014034170006</v>
+      </c>
+      <c r="I10" s="99" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>571</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>708</v>
+      </c>
+      <c r="D11" s="99">
+        <v>1.2510710194283623</v>
+      </c>
+      <c r="E11" s="100" t="s">
+        <v>709</v>
+      </c>
+      <c r="F11" s="101" t="s">
+        <v>414</v>
+      </c>
+      <c r="G11" s="99" t="s">
+        <v>710</v>
+      </c>
+      <c r="H11" s="99">
+        <v>1.0778841508846315</v>
+      </c>
+      <c r="I11" s="99" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="98" t="s">
+        <v>614</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>712</v>
+      </c>
+      <c r="D12" s="99">
+        <v>1.2788995735417383</v>
+      </c>
+      <c r="E12" s="100" t="s">
+        <v>713</v>
+      </c>
+      <c r="F12" s="101" t="s">
+        <v>415</v>
+      </c>
+      <c r="G12" s="99" t="s">
+        <v>714</v>
+      </c>
+      <c r="H12" s="99">
+        <v>1.1445367843513146</v>
+      </c>
+      <c r="I12" s="99" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="97" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="98" t="s">
+        <v>615</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>716</v>
+      </c>
+      <c r="D13" s="99">
+        <v>1.6820276496988864</v>
+      </c>
+      <c r="E13" s="100" t="s">
+        <v>717</v>
+      </c>
+      <c r="F13" s="101" t="s">
+        <v>383</v>
+      </c>
+      <c r="G13" s="99" t="s">
+        <v>718</v>
+      </c>
+      <c r="H13" s="99">
+        <v>1.7524240484244991</v>
+      </c>
+      <c r="I13" s="99" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="98" t="s">
+        <v>548</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>720</v>
+      </c>
+      <c r="D14" s="99">
+        <v>1.1841201389239695</v>
+      </c>
+      <c r="E14" s="100" t="s">
+        <v>721</v>
+      </c>
+      <c r="F14" s="101" t="s">
+        <v>384</v>
+      </c>
+      <c r="G14" s="99" t="s">
+        <v>722</v>
+      </c>
+      <c r="H14" s="99">
+        <v>1.1817542653083615</v>
+      </c>
+      <c r="I14" s="99" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>616</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>724</v>
+      </c>
+      <c r="D15" s="99">
+        <v>0.73344695622428924</v>
+      </c>
+      <c r="E15" s="100" t="s">
+        <v>725</v>
+      </c>
+      <c r="F15" s="101" t="s">
+        <v>672</v>
+      </c>
+      <c r="G15" s="99" t="s">
+        <v>726</v>
+      </c>
+      <c r="H15" s="99">
+        <v>0.77880078307140488</v>
+      </c>
+      <c r="I15" s="99" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="98" t="s">
+        <v>574</v>
+      </c>
+      <c r="C16" s="99" t="s">
+        <v>728</v>
+      </c>
+      <c r="D16" s="99">
+        <v>1.4858693175513897</v>
+      </c>
+      <c r="E16" s="100" t="s">
+        <v>729</v>
+      </c>
+      <c r="F16" s="101" t="s">
+        <v>351</v>
+      </c>
+      <c r="G16" s="99" t="s">
+        <v>730</v>
+      </c>
+      <c r="H16" s="99">
+        <v>1.6669573190640476</v>
+      </c>
+      <c r="I16" s="99" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="98" t="s">
+        <v>575</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>732</v>
+      </c>
+      <c r="D17" s="99">
+        <v>0.96753855958903201</v>
+      </c>
+      <c r="E17" s="100" t="s">
+        <v>733</v>
+      </c>
+      <c r="F17" s="101" t="s">
+        <v>417</v>
+      </c>
+      <c r="G17" s="99" t="s">
+        <v>734</v>
+      </c>
+      <c r="H17" s="99">
+        <v>1.0597149957102876</v>
+      </c>
+      <c r="I17" s="99" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="98"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="101"/>
+    </row>
+    <row r="19" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="98"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="101"/>
+    </row>
+    <row r="20" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="98"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="101"/>
+    </row>
+    <row r="21" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="98"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="101"/>
+    </row>
+    <row r="22" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="98"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="101"/>
+    </row>
+    <row r="23" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="98"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="101"/>
+    </row>
+    <row r="24" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="97"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="101"/>
+    </row>
+    <row r="25" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="98"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="101"/>
+    </row>
+    <row r="26" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="98" t="s">
+        <v>576</v>
+      </c>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="101" t="s">
+        <v>418</v>
+      </c>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="101"/>
+    </row>
+    <row r="27" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="97" t="s">
+        <v>687</v>
+      </c>
+      <c r="B27" s="98" t="s">
+        <v>577</v>
+      </c>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="101" t="s">
+        <v>419</v>
+      </c>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="101"/>
+    </row>
+    <row r="28" spans="1:9" s="94" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="98" t="s">
+        <v>578</v>
+      </c>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="101" t="s">
+        <v>420</v>
+      </c>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="101"/>
+    </row>
+    <row r="29" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="102"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="104"/>
+      <c r="I29" s="104"/>
+    </row>
+    <row r="30" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="102"/>
+      <c r="E30" s="103"/>
+    </row>
+    <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="97"/>
+      <c r="B31" s="102"/>
+      <c r="E31" s="103"/>
+    </row>
+    <row r="32" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="107">
+        <v>17708.71</v>
+      </c>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="110">
+        <v>13978</v>
+      </c>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92288717-A2D3-A84E-B27A-83ADB33A2C54}">
   <dimension ref="A2:N43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
@@ -4322,7 +6176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N43"/>
   <sheetViews>
@@ -5547,7 +7401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81D37E6-6627-4133-99E4-C14FF649944B}">
   <dimension ref="A1:D97"/>
   <sheetViews>
@@ -6931,7 +8785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89756970-2E78-4B9C-9CEB-B909697611D3}">
   <dimension ref="A1:D106"/>
   <sheetViews>
@@ -8441,7 +10295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233B1835-794F-E640-BAF0-2B9B5CC81A8F}">
   <dimension ref="A2:AG296"/>
   <sheetViews>
@@ -31365,7 +33219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6663F0AD-AA73-7F47-BC37-069690D7CC4D}">
   <dimension ref="A2:AD296"/>
   <sheetViews>
@@ -53752,7 +55606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213DAD1-B3D5-444E-BDCC-348C5B712C24}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -53952,127 +55806,4 @@
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A25"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="122.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Study 1 model fitting results.xlsx
+++ b/Study 1 model fitting results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimi/Desktop/Desktop Contents/Dissertation/Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAE2B99-8E33-EE4E-990F-51BCEB534A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C650C39-0FF6-3542-BD7D-F2B9FBE0779D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="1280" windowWidth="44360" windowHeight="26000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="960" windowWidth="44360" windowHeight="26000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study 1 result" sheetId="21" r:id="rId1"/>
@@ -3440,7 +3440,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3479,7 +3479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4036,6 +4042,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4055,9 +4064,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4114,46 +4120,46 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4485,8 +4491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E6F793-F5A6-DA4D-9708-7D89CE3448CB}">
   <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4503,7 +4509,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" s="87" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="146" t="s">
         <v>682</v>
       </c>
       <c r="B2" s="153" t="s">
@@ -4520,7 +4526,7 @@
       <c r="I2" s="171"/>
     </row>
     <row r="3" spans="1:9" s="88" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="146"/>
+      <c r="A3" s="147"/>
       <c r="B3" s="156" t="s">
         <v>674</v>
       </c>
@@ -4617,8 +4623,8 @@
         <v>925</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="90" t="s">
+    <row r="7" spans="1:9" s="52" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="56" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="164" t="s">
@@ -4646,8 +4652,8 @@
         <v>926</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="90" t="s">
+    <row r="8" spans="1:9" s="52" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="56" t="s">
         <v>124</v>
       </c>
       <c r="B8" s="164" t="s">
@@ -4675,8 +4681,8 @@
         <v>927</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90" t="s">
+    <row r="9" spans="1:9" s="52" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="56" t="s">
         <v>116</v>
       </c>
       <c r="B9" s="164" t="s">
@@ -4791,8 +4797,8 @@
         <v>946</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90" t="s">
+    <row r="13" spans="1:9" s="52" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="56" t="s">
         <v>128</v>
       </c>
       <c r="B13" s="164" t="s">
@@ -4820,8 +4826,8 @@
         <v>948</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="90" t="s">
+    <row r="14" spans="1:9" s="52" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
         <v>129</v>
       </c>
       <c r="B14" s="164" t="s">
@@ -4849,8 +4855,8 @@
         <v>931</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="90" t="s">
+    <row r="15" spans="1:9" s="52" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="56" t="s">
         <v>130</v>
       </c>
       <c r="B15" s="164" t="s">
@@ -4878,8 +4884,8 @@
         <v>932</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="90" t="s">
+    <row r="16" spans="1:9" s="52" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="56" t="s">
         <v>131</v>
       </c>
       <c r="B16" s="164" t="s">
@@ -5238,7 +5244,7 @@
   <dimension ref="A2:Q43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -5263,32 +5269,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="148" t="s">
         <v>685</v>
       </c>
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="150" t="s">
         <v>672</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="150" t="s">
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="151" t="s">
         <v>673</v>
       </c>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
     </row>
     <row r="3" spans="1:17" s="88" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="148"/>
+      <c r="A3" s="149"/>
       <c r="B3" s="111" t="s">
         <v>674</v>
       </c>
@@ -9763,8 +9769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81D37E6-6627-4133-99E4-C14FF649944B}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10739,10 +10745,10 @@
       <c r="B34" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="152">
+      <c r="C34" s="145">
         <v>0.16656523767738199</v>
       </c>
-      <c r="D34" s="152">
+      <c r="D34" s="145">
         <v>7.4678696276375495E-2</v>
       </c>
       <c r="E34" s="143">
@@ -10768,10 +10774,10 @@
       <c r="B35" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="152">
+      <c r="C35" s="145">
         <v>0.123660192165748</v>
       </c>
-      <c r="D35" s="152">
+      <c r="D35" s="145">
         <v>8.5279735158323697E-2</v>
       </c>
       <c r="E35" s="143">
@@ -12601,8 +12607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89756970-2E78-4B9C-9CEB-B909697611D3}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14674,23 +14680,23 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72" s="81" t="s">
         <v>643</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C72" s="137">
+      <c r="C72" s="145">
         <v>0.55984644771950698</v>
       </c>
-      <c r="D72" s="137">
+      <c r="D72" s="145">
         <v>0.141953300945171</v>
       </c>
-      <c r="E72" s="142">
+      <c r="E72" s="143">
         <f t="shared" si="3"/>
         <v>0.36253135940571929</v>
       </c>
-      <c r="F72" s="142">
+      <c r="F72" s="143">
         <f t="shared" si="4"/>
         <v>0.75716153603329461</v>
       </c>
@@ -14703,23 +14709,23 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="81" t="s">
         <v>626</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="137">
+      <c r="C73" s="145">
         <v>0.30207100124081399</v>
       </c>
-      <c r="D73" s="137">
+      <c r="D73" s="145">
         <v>0.15849141334520001</v>
       </c>
-      <c r="E73" s="142">
+      <c r="E73" s="143">
         <f t="shared" si="3"/>
         <v>8.1767936690986004E-2</v>
       </c>
-      <c r="F73" s="142">
+      <c r="F73" s="143">
         <f t="shared" si="4"/>
         <v>0.52237406579064194</v>
       </c>

--- a/Study 1 model fitting results.xlsx
+++ b/Study 1 model fitting results.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimi/Desktop/Desktop Contents/Dissertation/Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6B227D-ACA7-8842-8AB3-8D3B3E80D74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1875789D-B76A-5E43-90D2-94BCAC6A612F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52540" yWindow="4400" windowWidth="44360" windowHeight="26000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="800" windowWidth="44360" windowHeight="26000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study 1 result" sheetId="21" r:id="rId1"/>
-    <sheet name="Study 1 result_raw" sheetId="20" r:id="rId2"/>
-    <sheet name="Result_PSTRE" sheetId="13" r:id="rId3"/>
-    <sheet name="Result_LITNUM" sheetId="3" r:id="rId4"/>
-    <sheet name="PSTRE_ranef_pv1" sheetId="19" r:id="rId5"/>
-    <sheet name="LITNUM_ranef_pv1" sheetId="18" r:id="rId6"/>
-    <sheet name="PSTRE PVs" sheetId="12" r:id="rId7"/>
-    <sheet name="LITNUM PVs" sheetId="16" r:id="rId8"/>
-    <sheet name="Null model" sheetId="2" r:id="rId9"/>
-    <sheet name="Model AIC comparison" sheetId="8" r:id="rId10"/>
+    <sheet name="Edu + Skills Interaction" sheetId="22" r:id="rId2"/>
+    <sheet name="Study 1 result_raw" sheetId="20" r:id="rId3"/>
+    <sheet name="Result_PSTRE" sheetId="13" r:id="rId4"/>
+    <sheet name="Result_LITNUM" sheetId="3" r:id="rId5"/>
+    <sheet name="PSTRE_ranef_pv1" sheetId="19" r:id="rId6"/>
+    <sheet name="LITNUM_ranef_pv1" sheetId="18" r:id="rId7"/>
+    <sheet name="PSTRE PVs" sheetId="12" r:id="rId8"/>
+    <sheet name="LITNUM PVs" sheetId="16" r:id="rId9"/>
+    <sheet name="Null model" sheetId="2" r:id="rId10"/>
+    <sheet name="Model AIC comparison" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">LITNUM_ranef_pv1!$A$1:$H$141</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PSTRE_ranef_pv1!$A$1:$H$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">LITNUM_ranef_pv1!$A$1:$H$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">PSTRE_ranef_pv1!$A$1:$H$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4950" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5004" uniqueCount="968">
   <si>
     <t>.</t>
   </si>
@@ -3200,6 +3201,67 @@
   <si>
     <t>[0.890, 1.747]</t>
   </si>
+  <si>
+    <t>Literacy + Numeracy GLMM Final Model</t>
+  </si>
+  <si>
+    <t>Person 1
+(college completer)</t>
+  </si>
+  <si>
+    <t>Person 1 Cal</t>
+  </si>
+  <si>
+    <t>Person 2 Cal</t>
+  </si>
+  <si>
+    <t>Person 3 Cal</t>
+  </si>
+  <si>
+    <t>PSTRE  GLMM Final Model</t>
+  </si>
+  <si>
+    <t>Person 3
+(highschool)</t>
+  </si>
+  <si>
+    <t>Person 2
+(some college)</t>
+  </si>
+  <si>
+    <t>Person 4
+(some college with better LITNUM)</t>
+  </si>
+  <si>
+    <t>Person 4
+(some college with better PSTRE)</t>
+  </si>
+  <si>
+    <t>Person 5
+(highschool with better PSTRE)</t>
+  </si>
+  <si>
+    <t>Person 5
+(highschool with better LITNUM)</t>
+  </si>
+  <si>
+    <t>Person 4 Cal</t>
+  </si>
+  <si>
+    <t>Person 5 Cal</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>The pooled average combined literacy and numeracy skill score of the sample was 270.3 points (on 0~500 scale) with standard deviation of 52.6 points.</t>
+  </si>
+  <si>
+    <t>The pooled average PSTRE skill score for our sample was 286.1 points (on 0~500 scale) with a standard deviation of 46.2 points.</t>
+  </si>
+  <si>
+    <t>The sample size is 38, 552 individuals across 35 countries.</t>
+  </si>
 </sst>
 </file>
 
@@ -3211,7 +3273,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3439,6 +3501,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0432FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0432FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -3616,7 +3701,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4045,36 +4130,6 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4120,9 +4175,6 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4160,6 +4212,150 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4492,7 +4688,7 @@
   <dimension ref="A2:I23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4509,46 +4705,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" s="84" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="215" t="s">
         <v>682</v>
       </c>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="217" t="s">
         <v>683</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="171" t="s">
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="220" t="s">
         <v>684</v>
       </c>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
     </row>
     <row r="3" spans="1:9" s="85" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147"/>
-      <c r="B3" s="156" t="s">
+      <c r="A3" s="216"/>
+      <c r="B3" s="146" t="s">
         <v>674</v>
       </c>
-      <c r="C3" s="157" t="s">
+      <c r="C3" s="147" t="s">
         <v>675</v>
       </c>
-      <c r="D3" s="158" t="s">
+      <c r="D3" s="148" t="s">
         <v>676</v>
       </c>
-      <c r="E3" s="159" t="s">
+      <c r="E3" s="149" t="s">
         <v>677</v>
       </c>
-      <c r="F3" s="172" t="s">
+      <c r="F3" s="161" t="s">
         <v>674</v>
       </c>
-      <c r="G3" s="173" t="s">
+      <c r="G3" s="162" t="s">
         <v>675</v>
       </c>
-      <c r="H3" s="174" t="s">
+      <c r="H3" s="163" t="s">
         <v>676</v>
       </c>
-      <c r="I3" s="174" t="s">
+      <c r="I3" s="163" t="s">
         <v>677</v>
       </c>
     </row>
@@ -4556,41 +4752,41 @@
       <c r="A4" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
     </row>
     <row r="5" spans="1:9" s="86" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="164" t="s">
+      <c r="B5" s="154" t="s">
         <v>887</v>
       </c>
-      <c r="C5" s="165" t="s">
+      <c r="C5" s="155" t="s">
         <v>892</v>
       </c>
-      <c r="D5" s="166">
+      <c r="D5" s="156">
         <v>1.2712491503214047</v>
       </c>
-      <c r="E5" s="167" t="s">
+      <c r="E5" s="157" t="s">
         <v>935</v>
       </c>
-      <c r="F5" s="178" t="s">
+      <c r="F5" s="167" t="s">
         <v>467</v>
       </c>
-      <c r="G5" s="179" t="s">
+      <c r="G5" s="168" t="s">
         <v>903</v>
       </c>
-      <c r="H5" s="180">
+      <c r="H5" s="169">
         <v>1.3798847759572466</v>
       </c>
-      <c r="I5" s="180" t="s">
+      <c r="I5" s="169" t="s">
         <v>924</v>
       </c>
     </row>
@@ -4598,28 +4794,28 @@
       <c r="A6" s="87" t="s">
         <v>678</v>
       </c>
-      <c r="B6" s="164" t="s">
+      <c r="B6" s="154" t="s">
         <v>857</v>
       </c>
-      <c r="C6" s="165" t="s">
+      <c r="C6" s="155" t="s">
         <v>893</v>
       </c>
-      <c r="D6" s="166">
+      <c r="D6" s="156">
         <v>1.1118218765065309</v>
       </c>
-      <c r="E6" s="167" t="s">
+      <c r="E6" s="157" t="s">
         <v>936</v>
       </c>
-      <c r="F6" s="178" t="s">
+      <c r="F6" s="167" t="s">
         <v>468</v>
       </c>
-      <c r="G6" s="179" t="s">
+      <c r="G6" s="168" t="s">
         <v>904</v>
       </c>
-      <c r="H6" s="180">
+      <c r="H6" s="169">
         <v>1.0151130646157189</v>
       </c>
-      <c r="I6" s="180" t="s">
+      <c r="I6" s="169" t="s">
         <v>925</v>
       </c>
     </row>
@@ -4627,28 +4823,28 @@
       <c r="A7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="154" t="s">
         <v>858</v>
       </c>
-      <c r="C7" s="165" t="s">
+      <c r="C7" s="155" t="s">
         <v>894</v>
       </c>
-      <c r="D7" s="166">
+      <c r="D7" s="156">
         <v>1.456447133771086</v>
       </c>
-      <c r="E7" s="167" t="s">
+      <c r="E7" s="157" t="s">
         <v>937</v>
       </c>
-      <c r="F7" s="178" t="s">
+      <c r="F7" s="167" t="s">
         <v>438</v>
       </c>
-      <c r="G7" s="179" t="s">
+      <c r="G7" s="168" t="s">
         <v>905</v>
       </c>
-      <c r="H7" s="180">
+      <c r="H7" s="169">
         <v>1.456447133771086</v>
       </c>
-      <c r="I7" s="180" t="s">
+      <c r="I7" s="169" t="s">
         <v>926</v>
       </c>
     </row>
@@ -4656,28 +4852,28 @@
       <c r="A8" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="154" t="s">
         <v>712</v>
       </c>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="155" t="s">
         <v>895</v>
       </c>
-      <c r="D8" s="166">
+      <c r="D8" s="156">
         <v>0.76337949433685315</v>
       </c>
-      <c r="E8" s="167" t="s">
+      <c r="E8" s="157" t="s">
         <v>938</v>
       </c>
-      <c r="F8" s="178" t="s">
+      <c r="F8" s="167" t="s">
         <v>469</v>
       </c>
-      <c r="G8" s="179" t="s">
+      <c r="G8" s="168" t="s">
         <v>906</v>
       </c>
-      <c r="H8" s="180">
+      <c r="H8" s="169">
         <v>0.7385990963704826</v>
       </c>
-      <c r="I8" s="180" t="s">
+      <c r="I8" s="169" t="s">
         <v>927</v>
       </c>
     </row>
@@ -4685,28 +4881,28 @@
       <c r="A9" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="164" t="s">
+      <c r="B9" s="154" t="s">
         <v>886</v>
       </c>
-      <c r="C9" s="165" t="s">
+      <c r="C9" s="155" t="s">
         <v>896</v>
       </c>
-      <c r="D9" s="166">
+      <c r="D9" s="156">
         <v>1.0725081812542165</v>
       </c>
-      <c r="E9" s="167" t="s">
+      <c r="E9" s="157" t="s">
         <v>939</v>
       </c>
-      <c r="F9" s="178" t="s">
+      <c r="F9" s="167" t="s">
         <v>470</v>
       </c>
-      <c r="G9" s="179" t="s">
+      <c r="G9" s="168" t="s">
         <v>907</v>
       </c>
-      <c r="H9" s="180">
+      <c r="H9" s="169">
         <v>1.1263699182883529</v>
       </c>
-      <c r="I9" s="180" t="s">
+      <c r="I9" s="169" t="s">
         <v>928</v>
       </c>
     </row>
@@ -4714,28 +4910,28 @@
       <c r="A10" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="154" t="s">
         <v>860</v>
       </c>
-      <c r="C10" s="165" t="s">
+      <c r="C10" s="155" t="s">
         <v>897</v>
       </c>
-      <c r="D10" s="166">
+      <c r="D10" s="156">
         <v>1.7023335733667813</v>
       </c>
-      <c r="E10" s="167" t="s">
+      <c r="E10" s="157" t="s">
         <v>940</v>
       </c>
-      <c r="F10" s="178" t="s">
+      <c r="F10" s="167" t="s">
         <v>471</v>
       </c>
-      <c r="G10" s="179" t="s">
+      <c r="G10" s="168" t="s">
         <v>908</v>
       </c>
-      <c r="H10" s="180">
+      <c r="H10" s="169">
         <v>1.5573723343417794</v>
       </c>
-      <c r="I10" s="180" t="s">
+      <c r="I10" s="169" t="s">
         <v>929</v>
       </c>
     </row>
@@ -4743,28 +4939,28 @@
       <c r="A11" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="164" t="s">
+      <c r="B11" s="154" t="s">
         <v>861</v>
       </c>
-      <c r="C11" s="165" t="s">
+      <c r="C11" s="155" t="s">
         <v>898</v>
       </c>
-      <c r="D11" s="166">
+      <c r="D11" s="156">
         <v>1.2080409524829019</v>
       </c>
-      <c r="E11" s="167" t="s">
+      <c r="E11" s="157" t="s">
         <v>941</v>
       </c>
-      <c r="F11" s="178" t="s">
+      <c r="F11" s="167" t="s">
         <v>472</v>
       </c>
-      <c r="G11" s="179" t="s">
+      <c r="G11" s="168" t="s">
         <v>909</v>
       </c>
-      <c r="H11" s="180">
+      <c r="H11" s="169">
         <v>1.0470744109569372</v>
       </c>
-      <c r="I11" s="180" t="s">
+      <c r="I11" s="169" t="s">
         <v>930</v>
       </c>
     </row>
@@ -4772,28 +4968,28 @@
       <c r="A12" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="164" t="s">
+      <c r="B12" s="154" t="s">
         <v>862</v>
       </c>
-      <c r="C12" s="165" t="s">
+      <c r="C12" s="155" t="s">
         <v>899</v>
       </c>
-      <c r="D12" s="166">
+      <c r="D12" s="156">
         <v>1.2473234305640648</v>
       </c>
-      <c r="E12" s="167" t="s">
+      <c r="E12" s="157" t="s">
         <v>949</v>
       </c>
-      <c r="F12" s="178" t="s">
+      <c r="F12" s="167" t="s">
         <v>473</v>
       </c>
-      <c r="G12" s="179" t="s">
+      <c r="G12" s="168" t="s">
         <v>910</v>
       </c>
-      <c r="H12" s="180">
+      <c r="H12" s="169">
         <v>1.1173949068544582</v>
       </c>
-      <c r="I12" s="180" t="s">
+      <c r="I12" s="169" t="s">
         <v>946</v>
       </c>
     </row>
@@ -4801,28 +4997,28 @@
       <c r="A13" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="164" t="s">
+      <c r="B13" s="154" t="s">
         <v>885</v>
       </c>
-      <c r="C13" s="165" t="s">
+      <c r="C13" s="155" t="s">
         <v>900</v>
       </c>
-      <c r="D13" s="166">
+      <c r="D13" s="156">
         <v>1.6820276496988864</v>
       </c>
-      <c r="E13" s="167" t="s">
+      <c r="E13" s="157" t="s">
         <v>942</v>
       </c>
-      <c r="F13" s="178" t="s">
+      <c r="F13" s="167" t="s">
         <v>474</v>
       </c>
-      <c r="G13" s="179" t="s">
+      <c r="G13" s="168" t="s">
         <v>911</v>
       </c>
-      <c r="H13" s="180">
+      <c r="H13" s="169">
         <v>1.7228846360108874</v>
       </c>
-      <c r="I13" s="180" t="s">
+      <c r="I13" s="169" t="s">
         <v>948</v>
       </c>
     </row>
@@ -4830,28 +5026,28 @@
       <c r="A14" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="154" t="s">
         <v>545</v>
       </c>
-      <c r="C14" s="165" t="s">
+      <c r="C14" s="155" t="s">
         <v>679</v>
       </c>
-      <c r="D14" s="166">
+      <c r="D14" s="156">
         <v>1.1841201389239695</v>
       </c>
-      <c r="E14" s="167" t="s">
+      <c r="E14" s="157" t="s">
         <v>947</v>
       </c>
-      <c r="F14" s="178" t="s">
+      <c r="F14" s="167" t="s">
         <v>346</v>
       </c>
-      <c r="G14" s="179" t="s">
+      <c r="G14" s="168" t="s">
         <v>912</v>
       </c>
-      <c r="H14" s="180">
+      <c r="H14" s="169">
         <v>1.1829366106478107</v>
       </c>
-      <c r="I14" s="180" t="s">
+      <c r="I14" s="169" t="s">
         <v>931</v>
       </c>
     </row>
@@ -4859,28 +5055,28 @@
       <c r="A15" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="164" t="s">
+      <c r="B15" s="154" t="s">
         <v>613</v>
       </c>
-      <c r="C15" s="165" t="s">
+      <c r="C15" s="155" t="s">
         <v>680</v>
       </c>
-      <c r="D15" s="166">
+      <c r="D15" s="156">
         <v>0.73344695622428924</v>
       </c>
-      <c r="E15" s="167" t="s">
+      <c r="E15" s="157" t="s">
         <v>943</v>
       </c>
-      <c r="F15" s="178" t="s">
+      <c r="F15" s="167" t="s">
         <v>382</v>
       </c>
-      <c r="G15" s="179" t="s">
+      <c r="G15" s="168" t="s">
         <v>913</v>
       </c>
-      <c r="H15" s="180">
+      <c r="H15" s="169">
         <v>0.77182302304370343</v>
       </c>
-      <c r="I15" s="180" t="s">
+      <c r="I15" s="169" t="s">
         <v>932</v>
       </c>
     </row>
@@ -4888,28 +5084,28 @@
       <c r="A16" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="164" t="s">
+      <c r="B16" s="154" t="s">
         <v>864</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="155" t="s">
         <v>901</v>
       </c>
-      <c r="D16" s="166">
+      <c r="D16" s="156">
         <v>1.4873559300513066</v>
       </c>
-      <c r="E16" s="167" t="s">
+      <c r="E16" s="157" t="s">
         <v>944</v>
       </c>
-      <c r="F16" s="178" t="s">
+      <c r="F16" s="167" t="s">
         <v>348</v>
       </c>
-      <c r="G16" s="179" t="s">
+      <c r="G16" s="168" t="s">
         <v>681</v>
       </c>
-      <c r="H16" s="180">
+      <c r="H16" s="169">
         <v>1.6669573190640476</v>
       </c>
-      <c r="I16" s="180" t="s">
+      <c r="I16" s="169" t="s">
         <v>933</v>
       </c>
     </row>
@@ -4917,28 +5113,28 @@
       <c r="A17" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="164" t="s">
+      <c r="B17" s="154" t="s">
         <v>572</v>
       </c>
-      <c r="C17" s="165" t="s">
+      <c r="C17" s="155" t="s">
         <v>902</v>
       </c>
-      <c r="D17" s="166">
+      <c r="D17" s="156">
         <v>0.96753855958903201</v>
       </c>
-      <c r="E17" s="167" t="s">
+      <c r="E17" s="157" t="s">
         <v>945</v>
       </c>
-      <c r="F17" s="178" t="s">
+      <c r="F17" s="167" t="s">
         <v>349</v>
       </c>
-      <c r="G17" s="179" t="s">
+      <c r="G17" s="168" t="s">
         <v>914</v>
       </c>
-      <c r="H17" s="180">
+      <c r="H17" s="169">
         <v>1.0575976837366112</v>
       </c>
-      <c r="I17" s="180" t="s">
+      <c r="I17" s="169" t="s">
         <v>934</v>
       </c>
     </row>
@@ -4946,80 +5142,80 @@
       <c r="A18" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="164"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="181"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="170"/>
     </row>
     <row r="19" spans="1:9" s="86" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="164" t="s">
+      <c r="B19" s="154" t="s">
         <v>865</v>
       </c>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="178" t="s">
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="167" t="s">
         <v>475</v>
       </c>
-      <c r="G19" s="176"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="181"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="170"/>
     </row>
     <row r="20" spans="1:9" s="86" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="87" t="s">
         <v>678</v>
       </c>
-      <c r="B20" s="164" t="s">
+      <c r="B20" s="154" t="s">
         <v>866</v>
       </c>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="178" t="s">
+      <c r="C20" s="151"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="167" t="s">
         <v>476</v>
       </c>
-      <c r="G20" s="176"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="181"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="170"/>
     </row>
     <row r="21" spans="1:9" s="86" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="164" t="s">
+      <c r="B21" s="154" t="s">
         <v>575</v>
       </c>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="176"/>
-      <c r="I21" s="181"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="170"/>
     </row>
     <row r="22" spans="1:9" s="86" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="168" t="s">
+      <c r="B22" s="158" t="s">
         <v>867</v>
       </c>
-      <c r="C22" s="169"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="182" t="s">
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="171" t="s">
         <v>477</v>
       </c>
-      <c r="G22" s="183"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="184"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="173"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F23" s="123"/>
@@ -5038,6 +5234,129 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="122.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213DAD1-B3D5-444E-BDCC-348C5B712C24}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -5240,11 +5559,1326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBCB079-4DBE-6B4A-B26F-C9A61DFD11FE}">
+  <dimension ref="A2:L38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="187" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="174" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="174" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="174" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="174" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="139" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" style="205"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="175" t="s">
+        <v>950</v>
+      </c>
+      <c r="B2" s="176" t="s">
+        <v>674</v>
+      </c>
+      <c r="C2" s="190" t="s">
+        <v>951</v>
+      </c>
+      <c r="D2" s="177" t="s">
+        <v>957</v>
+      </c>
+      <c r="E2" s="177" t="s">
+        <v>956</v>
+      </c>
+      <c r="F2" s="177" t="s">
+        <v>958</v>
+      </c>
+      <c r="G2" s="191" t="s">
+        <v>961</v>
+      </c>
+      <c r="H2" s="188" t="s">
+        <v>952</v>
+      </c>
+      <c r="I2" s="176" t="s">
+        <v>953</v>
+      </c>
+      <c r="J2" s="176" t="s">
+        <v>954</v>
+      </c>
+      <c r="K2" s="206" t="s">
+        <v>962</v>
+      </c>
+      <c r="L2" s="206" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="178" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="174">
+        <v>0.24</v>
+      </c>
+      <c r="C3" s="192">
+        <v>1</v>
+      </c>
+      <c r="D3" s="193">
+        <v>1</v>
+      </c>
+      <c r="E3" s="193">
+        <v>1</v>
+      </c>
+      <c r="F3" s="193">
+        <v>1</v>
+      </c>
+      <c r="G3" s="194">
+        <v>1</v>
+      </c>
+      <c r="H3" s="139">
+        <f>B3*C3</f>
+        <v>0.24</v>
+      </c>
+      <c r="I3">
+        <f>B3*D3</f>
+        <v>0.24</v>
+      </c>
+      <c r="J3">
+        <f>B3*E3</f>
+        <v>0.24</v>
+      </c>
+      <c r="K3" s="205">
+        <f>B3*F3</f>
+        <v>0.24</v>
+      </c>
+      <c r="L3" s="205">
+        <f>B3*G3</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="185" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="186">
+        <v>0.106</v>
+      </c>
+      <c r="C4" s="195">
+        <v>1</v>
+      </c>
+      <c r="D4" s="196">
+        <v>1</v>
+      </c>
+      <c r="E4" s="197">
+        <v>1</v>
+      </c>
+      <c r="F4" s="198">
+        <v>2</v>
+      </c>
+      <c r="G4" s="199">
+        <v>3</v>
+      </c>
+      <c r="H4" s="139">
+        <f t="shared" ref="H4:H15" si="0">B4*C4</f>
+        <v>0.106</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I15" si="1">B4*D4</f>
+        <v>0.106</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J15" si="2">B4*E4</f>
+        <v>0.106</v>
+      </c>
+      <c r="K4" s="205">
+        <f t="shared" ref="K4:K15" si="3">B4*F4</f>
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="L4" s="205">
+        <f t="shared" ref="L4:L15" si="4">B4*G4</f>
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="178" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="174">
+        <v>0.376</v>
+      </c>
+      <c r="C5" s="192">
+        <v>1</v>
+      </c>
+      <c r="D5" s="193">
+        <v>1</v>
+      </c>
+      <c r="E5" s="193">
+        <v>1</v>
+      </c>
+      <c r="F5" s="193">
+        <v>1</v>
+      </c>
+      <c r="G5" s="194">
+        <v>1</v>
+      </c>
+      <c r="H5" s="139">
+        <f t="shared" si="0"/>
+        <v>0.376</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0.376</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0.376</v>
+      </c>
+      <c r="K5" s="205">
+        <f t="shared" si="3"/>
+        <v>0.376</v>
+      </c>
+      <c r="L5" s="205">
+        <f t="shared" si="4"/>
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="178" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="179">
+        <v>-0.27</v>
+      </c>
+      <c r="C6" s="192">
+        <v>1</v>
+      </c>
+      <c r="D6" s="193">
+        <v>1</v>
+      </c>
+      <c r="E6" s="193">
+        <v>1</v>
+      </c>
+      <c r="F6" s="193">
+        <v>1</v>
+      </c>
+      <c r="G6" s="194">
+        <v>1</v>
+      </c>
+      <c r="H6" s="139">
+        <f t="shared" si="0"/>
+        <v>-0.27</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>-0.27</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>-0.27</v>
+      </c>
+      <c r="K6" s="205">
+        <f t="shared" si="3"/>
+        <v>-0.27</v>
+      </c>
+      <c r="L6" s="205">
+        <f t="shared" si="4"/>
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="178" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="174">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C7" s="192">
+        <v>1</v>
+      </c>
+      <c r="D7" s="193">
+        <v>1</v>
+      </c>
+      <c r="E7" s="193">
+        <v>1</v>
+      </c>
+      <c r="F7" s="193">
+        <v>1</v>
+      </c>
+      <c r="G7" s="194">
+        <v>1</v>
+      </c>
+      <c r="H7" s="139">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K7" s="205">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L7" s="205">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="183" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="184">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="C8" s="200">
+        <v>1</v>
+      </c>
+      <c r="D8" s="201">
+        <v>0</v>
+      </c>
+      <c r="E8" s="201">
+        <v>0</v>
+      </c>
+      <c r="F8" s="201">
+        <v>0</v>
+      </c>
+      <c r="G8" s="202">
+        <v>0</v>
+      </c>
+      <c r="H8" s="139">
+        <f t="shared" si="0"/>
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="205">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="183" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="184">
+        <v>0.189</v>
+      </c>
+      <c r="C9" s="200">
+        <v>0</v>
+      </c>
+      <c r="D9" s="201">
+        <v>0</v>
+      </c>
+      <c r="E9" s="201">
+        <v>1</v>
+      </c>
+      <c r="F9" s="201">
+        <v>0</v>
+      </c>
+      <c r="G9" s="202">
+        <v>1</v>
+      </c>
+      <c r="H9" s="139">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0.189</v>
+      </c>
+      <c r="K9" s="205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="205">
+        <f t="shared" si="4"/>
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="183" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="184">
+        <v>0.221</v>
+      </c>
+      <c r="C10" s="200">
+        <v>0</v>
+      </c>
+      <c r="D10" s="201">
+        <v>1</v>
+      </c>
+      <c r="E10" s="201">
+        <v>0</v>
+      </c>
+      <c r="F10" s="201">
+        <v>1</v>
+      </c>
+      <c r="G10" s="202">
+        <v>0</v>
+      </c>
+      <c r="H10" s="139">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.221</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="205">
+        <f t="shared" si="3"/>
+        <v>0.221</v>
+      </c>
+      <c r="L10" s="205">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="178" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="174">
+        <v>0.52</v>
+      </c>
+      <c r="C11" s="192">
+        <v>1</v>
+      </c>
+      <c r="D11" s="193">
+        <v>1</v>
+      </c>
+      <c r="E11" s="193">
+        <v>1</v>
+      </c>
+      <c r="F11" s="193">
+        <v>1</v>
+      </c>
+      <c r="G11" s="194">
+        <v>1</v>
+      </c>
+      <c r="H11" s="139">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0.52</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0.52</v>
+      </c>
+      <c r="K11" s="205">
+        <f t="shared" si="3"/>
+        <v>0.52</v>
+      </c>
+      <c r="L11" s="205">
+        <f t="shared" si="4"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="178" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="174">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="C12" s="192">
+        <v>1</v>
+      </c>
+      <c r="D12" s="193">
+        <v>1</v>
+      </c>
+      <c r="E12" s="193">
+        <v>1</v>
+      </c>
+      <c r="F12" s="193">
+        <v>1</v>
+      </c>
+      <c r="G12" s="194">
+        <v>1</v>
+      </c>
+      <c r="H12" s="139">
+        <f t="shared" si="0"/>
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="K12" s="205">
+        <f t="shared" si="3"/>
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="L12" s="205">
+        <f t="shared" si="4"/>
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="178" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="174">
+        <v>-0.31</v>
+      </c>
+      <c r="C13" s="192">
+        <v>0</v>
+      </c>
+      <c r="D13" s="193">
+        <v>0</v>
+      </c>
+      <c r="E13" s="193">
+        <v>0</v>
+      </c>
+      <c r="F13" s="193">
+        <v>0</v>
+      </c>
+      <c r="G13" s="194">
+        <v>0</v>
+      </c>
+      <c r="H13" s="139">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="205">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="178" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="174">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="C14" s="192">
+        <v>1</v>
+      </c>
+      <c r="D14" s="193">
+        <v>1</v>
+      </c>
+      <c r="E14" s="193">
+        <v>1</v>
+      </c>
+      <c r="F14" s="193">
+        <v>1</v>
+      </c>
+      <c r="G14" s="194">
+        <v>1</v>
+      </c>
+      <c r="H14" s="139">
+        <f t="shared" si="0"/>
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="K14" s="205">
+        <f t="shared" si="3"/>
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="L14" s="205">
+        <f t="shared" si="4"/>
+        <v>0.39700000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="180" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="181">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="C15" s="203">
+        <v>0</v>
+      </c>
+      <c r="D15" s="181">
+        <v>0</v>
+      </c>
+      <c r="E15" s="181">
+        <v>0</v>
+      </c>
+      <c r="F15" s="181">
+        <v>0</v>
+      </c>
+      <c r="G15" s="204">
+        <v>0</v>
+      </c>
+      <c r="H15" s="189">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="182">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="182">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="207">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="178"/>
+      <c r="B16" s="174"/>
+      <c r="H16" s="139">
+        <f>SUM(H3:H15)</f>
+        <v>2.14</v>
+      </c>
+      <c r="I16" s="139">
+        <f t="shared" ref="I16:J16" si="5">SUM(I3:I15)</f>
+        <v>1.829</v>
+      </c>
+      <c r="J16" s="139">
+        <f t="shared" si="5"/>
+        <v>1.7970000000000002</v>
+      </c>
+      <c r="K16" s="208">
+        <f t="shared" ref="K16" si="6">SUM(K3:K15)</f>
+        <v>1.9349999999999998</v>
+      </c>
+      <c r="L16" s="208">
+        <f t="shared" ref="L16" si="7">SUM(L3:L15)</f>
+        <v>2.0090000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="178"/>
+      <c r="B17" s="174"/>
+    </row>
+    <row r="19" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" s="175" t="s">
+        <v>955</v>
+      </c>
+      <c r="B19" s="176" t="s">
+        <v>674</v>
+      </c>
+      <c r="C19" s="190" t="s">
+        <v>951</v>
+      </c>
+      <c r="D19" s="177" t="s">
+        <v>957</v>
+      </c>
+      <c r="E19" s="177" t="s">
+        <v>956</v>
+      </c>
+      <c r="F19" s="177" t="s">
+        <v>959</v>
+      </c>
+      <c r="G19" s="191" t="s">
+        <v>960</v>
+      </c>
+      <c r="H19" s="188" t="s">
+        <v>952</v>
+      </c>
+      <c r="I19" s="176" t="s">
+        <v>953</v>
+      </c>
+      <c r="J19" s="176" t="s">
+        <v>954</v>
+      </c>
+      <c r="K19" s="206" t="s">
+        <v>962</v>
+      </c>
+      <c r="L19" s="206" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="178" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="174">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="C20" s="192">
+        <v>1</v>
+      </c>
+      <c r="D20" s="193">
+        <v>1</v>
+      </c>
+      <c r="E20" s="193">
+        <v>1</v>
+      </c>
+      <c r="F20" s="193">
+        <v>1</v>
+      </c>
+      <c r="G20" s="194">
+        <v>1</v>
+      </c>
+      <c r="H20" s="139">
+        <f>B20*C20</f>
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="I20">
+        <f>B20*D20</f>
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="J20">
+        <f>B20*E20</f>
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="K20" s="205">
+        <f>B20*F20</f>
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="L20" s="205">
+        <f>B20*G20</f>
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="178" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="174">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C21" s="195">
+        <v>1</v>
+      </c>
+      <c r="D21" s="196">
+        <v>1</v>
+      </c>
+      <c r="E21" s="197">
+        <v>1</v>
+      </c>
+      <c r="F21" s="198">
+        <v>2</v>
+      </c>
+      <c r="G21" s="199">
+        <v>3</v>
+      </c>
+      <c r="H21" s="139">
+        <f t="shared" ref="H21:H32" si="8">B21*C21</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21:I32" si="9">B21*D21</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21:J32" si="10">B21*E21</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K21" s="205">
+        <f t="shared" ref="K21:K32" si="11">B21*F21</f>
+        <v>0.03</v>
+      </c>
+      <c r="L21" s="205">
+        <f t="shared" ref="L21:L32" si="12">B21*G21</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="178" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="174">
+        <v>0.376</v>
+      </c>
+      <c r="C22" s="192">
+        <v>1</v>
+      </c>
+      <c r="D22" s="193">
+        <v>1</v>
+      </c>
+      <c r="E22" s="193">
+        <v>1</v>
+      </c>
+      <c r="F22" s="193">
+        <v>1</v>
+      </c>
+      <c r="G22" s="194">
+        <v>1</v>
+      </c>
+      <c r="H22" s="139">
+        <f t="shared" si="8"/>
+        <v>0.376</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="9"/>
+        <v>0.376</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="10"/>
+        <v>0.376</v>
+      </c>
+      <c r="K22" s="205">
+        <f t="shared" si="11"/>
+        <v>0.376</v>
+      </c>
+      <c r="L22" s="205">
+        <f t="shared" si="12"/>
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="178" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="179">
+        <v>-0.30299999999999999</v>
+      </c>
+      <c r="C23" s="192">
+        <v>1</v>
+      </c>
+      <c r="D23" s="193">
+        <v>1</v>
+      </c>
+      <c r="E23" s="193">
+        <v>1</v>
+      </c>
+      <c r="F23" s="193">
+        <v>1</v>
+      </c>
+      <c r="G23" s="194">
+        <v>1</v>
+      </c>
+      <c r="H23" s="139">
+        <f t="shared" si="8"/>
+        <v>-0.30299999999999999</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="9"/>
+        <v>-0.30299999999999999</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="10"/>
+        <v>-0.30299999999999999</v>
+      </c>
+      <c r="K23" s="205">
+        <f t="shared" si="11"/>
+        <v>-0.30299999999999999</v>
+      </c>
+      <c r="L23" s="205">
+        <f t="shared" si="12"/>
+        <v>-0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="178" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="174">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="C24" s="192">
+        <v>1</v>
+      </c>
+      <c r="D24" s="193">
+        <v>1</v>
+      </c>
+      <c r="E24" s="193">
+        <v>1</v>
+      </c>
+      <c r="F24" s="193">
+        <v>1</v>
+      </c>
+      <c r="G24" s="194">
+        <v>1</v>
+      </c>
+      <c r="H24" s="139">
+        <f t="shared" si="8"/>
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="9"/>
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="10"/>
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="K24" s="205">
+        <f t="shared" si="11"/>
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="L24" s="205">
+        <f t="shared" si="12"/>
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="183" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="184">
+        <v>0.443</v>
+      </c>
+      <c r="C25" s="200">
+        <v>1</v>
+      </c>
+      <c r="D25" s="201">
+        <v>0</v>
+      </c>
+      <c r="E25" s="201">
+        <v>0</v>
+      </c>
+      <c r="F25" s="201">
+        <v>0</v>
+      </c>
+      <c r="G25" s="202">
+        <v>0</v>
+      </c>
+      <c r="H25" s="139">
+        <f t="shared" si="8"/>
+        <v>0.443</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="205">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="205">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="183" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="184">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C26" s="200">
+        <v>0</v>
+      </c>
+      <c r="D26" s="201">
+        <v>0</v>
+      </c>
+      <c r="E26" s="201">
+        <v>1</v>
+      </c>
+      <c r="F26" s="201">
+        <v>0</v>
+      </c>
+      <c r="G26" s="202">
+        <v>1</v>
+      </c>
+      <c r="H26" s="139">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="10"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K26" s="205">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="205">
+        <f t="shared" si="12"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="183" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="184">
+        <v>0.111</v>
+      </c>
+      <c r="C27" s="200">
+        <v>0</v>
+      </c>
+      <c r="D27" s="201">
+        <v>1</v>
+      </c>
+      <c r="E27" s="201">
+        <v>0</v>
+      </c>
+      <c r="F27" s="201">
+        <v>1</v>
+      </c>
+      <c r="G27" s="202">
+        <v>0</v>
+      </c>
+      <c r="H27" s="139">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="9"/>
+        <v>0.111</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="205">
+        <f t="shared" si="11"/>
+        <v>0.111</v>
+      </c>
+      <c r="L27" s="205">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="178" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="174">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="C28" s="192">
+        <v>1</v>
+      </c>
+      <c r="D28" s="193">
+        <v>1</v>
+      </c>
+      <c r="E28" s="193">
+        <v>1</v>
+      </c>
+      <c r="F28" s="193">
+        <v>1</v>
+      </c>
+      <c r="G28" s="194">
+        <v>1</v>
+      </c>
+      <c r="H28" s="139">
+        <f t="shared" si="8"/>
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="9"/>
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="10"/>
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="K28" s="205">
+        <f t="shared" si="11"/>
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="L28" s="205">
+        <f t="shared" si="12"/>
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="178" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="174">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="C29" s="192">
+        <v>1</v>
+      </c>
+      <c r="D29" s="193">
+        <v>1</v>
+      </c>
+      <c r="E29" s="193">
+        <v>1</v>
+      </c>
+      <c r="F29" s="193">
+        <v>1</v>
+      </c>
+      <c r="G29" s="194">
+        <v>1</v>
+      </c>
+      <c r="H29" s="139">
+        <f t="shared" si="8"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="9"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="10"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="K29" s="205">
+        <f t="shared" si="11"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="L29" s="205">
+        <f t="shared" si="12"/>
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="178" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="174">
+        <v>-0.25900000000000001</v>
+      </c>
+      <c r="C30" s="192">
+        <v>0</v>
+      </c>
+      <c r="D30" s="193">
+        <v>0</v>
+      </c>
+      <c r="E30" s="193">
+        <v>0</v>
+      </c>
+      <c r="F30" s="193">
+        <v>0</v>
+      </c>
+      <c r="G30" s="194">
+        <v>0</v>
+      </c>
+      <c r="H30" s="139">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="205">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="205">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="178" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="174">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="C31" s="192">
+        <v>1</v>
+      </c>
+      <c r="D31" s="193">
+        <v>1</v>
+      </c>
+      <c r="E31" s="193">
+        <v>1</v>
+      </c>
+      <c r="F31" s="193">
+        <v>1</v>
+      </c>
+      <c r="G31" s="194">
+        <v>1</v>
+      </c>
+      <c r="H31" s="139">
+        <f t="shared" si="8"/>
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="9"/>
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="10"/>
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="K31" s="205">
+        <f t="shared" si="11"/>
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="L31" s="205">
+        <f t="shared" si="12"/>
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="180" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="181">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C32" s="203">
+        <v>0</v>
+      </c>
+      <c r="D32" s="181">
+        <v>0</v>
+      </c>
+      <c r="E32" s="181">
+        <v>0</v>
+      </c>
+      <c r="F32" s="181">
+        <v>0</v>
+      </c>
+      <c r="G32" s="204">
+        <v>0</v>
+      </c>
+      <c r="H32" s="189">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="182">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="182">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="207">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="207">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H33" s="139">
+        <f>SUM(H20:H32)</f>
+        <v>2.1950000000000003</v>
+      </c>
+      <c r="I33" s="139">
+        <f t="shared" ref="I33" si="13">SUM(I20:I32)</f>
+        <v>1.863</v>
+      </c>
+      <c r="J33" s="139">
+        <f t="shared" ref="J33" si="14">SUM(J20:J32)</f>
+        <v>1.798</v>
+      </c>
+      <c r="K33" s="208">
+        <f t="shared" ref="K33" si="15">SUM(K20:K32)</f>
+        <v>1.8780000000000001</v>
+      </c>
+      <c r="L33" s="208">
+        <f t="shared" ref="L33" si="16">SUM(L20:L32)</f>
+        <v>1.8279999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="122" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="209" t="s">
+        <v>964</v>
+      </c>
+      <c r="C35" s="210"/>
+      <c r="D35" s="211"/>
+      <c r="E35" s="211"/>
+      <c r="F35" s="211"/>
+      <c r="G35" s="211"/>
+      <c r="H35" s="212"/>
+      <c r="K35" s="213"/>
+      <c r="L35" s="213"/>
+    </row>
+    <row r="36" spans="1:12" s="122" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="112" t="s">
+        <v>967</v>
+      </c>
+      <c r="C36" s="210"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="211"/>
+      <c r="G36" s="211"/>
+      <c r="H36" s="212"/>
+      <c r="K36" s="213"/>
+      <c r="L36" s="213"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="112" t="s">
+        <v>965</v>
+      </c>
+      <c r="B37" s="139"/>
+      <c r="D37" s="187"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="214" t="s">
+        <v>966</v>
+      </c>
+      <c r="B38" s="139"/>
+      <c r="D38" s="187"/>
+      <c r="E38" s="187"/>
+      <c r="F38" s="187"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2772C4AA-3B6B-0743-BCCE-385E9F35E3DE}">
   <dimension ref="A2:Q43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="U43" sqref="U43"/>
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -5269,32 +6903,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="221" t="s">
         <v>685</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="223" t="s">
         <v>672</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="151" t="s">
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="224" t="s">
         <v>673</v>
       </c>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="224"/>
+      <c r="P2" s="224"/>
+      <c r="Q2" s="224"/>
     </row>
     <row r="3" spans="1:17" s="85" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="149"/>
+      <c r="A3" s="222"/>
       <c r="B3" s="106" t="s">
         <v>674</v>
       </c>
@@ -6535,7 +8169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92288717-A2D3-A84E-B27A-83ADB33A2C54}">
   <dimension ref="A2:S44"/>
   <sheetViews>
@@ -8119,7 +9753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S44"/>
   <sheetViews>
@@ -9704,7 +11338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81D37E6-6627-4133-99E4-C14FF649944B}">
   <dimension ref="A1:H97"/>
   <sheetViews>
@@ -12542,7 +14176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89756970-2E78-4B9C-9CEB-B909697611D3}">
   <dimension ref="A1:H141"/>
   <sheetViews>
@@ -16653,7 +18287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233B1835-794F-E640-BAF0-2B9B5CC81A8F}">
   <dimension ref="A2:AE424"/>
   <sheetViews>
@@ -48796,7 +50430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6663F0AD-AA73-7F47-BC37-069690D7CC4D}">
   <dimension ref="A2:AE424"/>
   <sheetViews>
@@ -80809,127 +82443,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A25"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="122.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>